--- a/DragPrediction/NL2VP DragX/0.5L/n/6/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.5L/n/6/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windtunnel\Desktop\New folder\6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windtunnel\Documents\GitHub\NU-Python\DragPrediction\NL2VP DragX\0.5L\n\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -354,15 +354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -378,8 +378,11 @@
       <c r="E1">
         <v>8.1675991735537194E-3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>-4.4370510000000003</v>
       </c>
@@ -400,8 +403,16 @@
         <f>SUM(E2:E59)</f>
         <v>3.9627238235444251</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <f>D2*$G$1</f>
+        <v>2.2443493800000001</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G137)</f>
+        <v>10.188697868999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>-4.4208829999999999</v>
       </c>
@@ -418,8 +429,12 @@
         <f t="shared" ref="E3:E59" si="0">D3*$E$1</f>
         <v>0.81740583560081403</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f t="shared" ref="G3:G59" si="1">D3*$G$1</f>
+        <v>2.1016607430000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>-4.3881940000000004</v>
       </c>
@@ -436,8 +451,12 @@
         <f t="shared" si="0"/>
         <v>0.74077349970692974</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.904628663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>-4.3563299999999998</v>
       </c>
@@ -454,8 +473,12 @@
         <f t="shared" si="0"/>
         <v>0.32916098496353308</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.84631732500000012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>-4.3355969999999999</v>
       </c>
@@ -472,8 +495,12 @@
         <f t="shared" si="0"/>
         <v>0.29474484562196285</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.75782878500000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>-4.3339369999999997</v>
       </c>
@@ -490,8 +517,12 @@
         <f t="shared" si="0"/>
         <v>0.41601800339122313</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.069638444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>-4.2857969999999996</v>
       </c>
@@ -508,8 +539,12 @@
         <f t="shared" si="0"/>
         <v>0.18001030020908679</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.46283078100000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>-4.227373</v>
       </c>
@@ -526,8 +561,12 @@
         <f t="shared" si="0"/>
         <v>0.11038689970239669</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.28381961999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>-4.2240320000000002</v>
       </c>
@@ -544,8 +583,12 @@
         <f t="shared" si="0"/>
         <v>0.12487021745088843</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.321058185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>-4.1359409999999999</v>
       </c>
@@ -562,8 +605,12 @@
         <f t="shared" si="0"/>
         <v>-5.656617824429752E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-1.4543927999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>-4.1173690000000001</v>
       </c>
@@ -580,8 +627,12 @@
         <f t="shared" si="0"/>
         <v>-5.3273492313471081E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-0.13697334000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>-4.0859050000000003</v>
       </c>
@@ -598,8 +649,12 @@
         <f t="shared" si="0"/>
         <v>-4.5085237281607439E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-0.11592023100000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>-4.0385999999999997</v>
       </c>
@@ -616,8 +671,12 @@
         <f t="shared" si="0"/>
         <v>-0.14112770925945867</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-0.362858391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>-4.0351759999999999</v>
       </c>
@@ -634,8 +693,12 @@
         <f t="shared" si="0"/>
         <v>-5.6687483427223143E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-0.14575117200000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>-3.9551959999999999</v>
       </c>
@@ -652,8 +715,12 @@
         <f t="shared" si="0"/>
         <v>-0.18689236827831818</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>-0.48052550700000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>-3.3380619999999999</v>
       </c>
@@ -670,8 +737,12 @@
         <f t="shared" si="0"/>
         <v>0.24648035402685126</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.63373426200000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>-3.3300839999999998</v>
       </c>
@@ -688,8 +759,12 @@
         <f t="shared" si="0"/>
         <v>0.20108401289272312</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.51701414099999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>-3.3259720000000002</v>
       </c>
@@ -706,8 +781,12 @@
         <f t="shared" si="0"/>
         <v>1.7877698456628101E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>4.5965975999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>-3.3065929999999999</v>
       </c>
@@ -724,8 +803,12 @@
         <f t="shared" si="0"/>
         <v>0.19168897874776858</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.49285824</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>-3.2752210000000002</v>
       </c>
@@ -742,8 +825,12 @@
         <f t="shared" si="0"/>
         <v>0.10267573864105786</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.26399318399999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>-3.0231659999999998</v>
       </c>
@@ -760,8 +847,12 @@
         <f t="shared" si="0"/>
         <v>-1.5878351854933886E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-4.0825386000000005E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>-3.0220980000000002</v>
       </c>
@@ -778,8 +869,12 @@
         <f t="shared" si="0"/>
         <v>-2.1599469210037192E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>-5.5535151000000005E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>-3.0019840000000002</v>
       </c>
@@ -796,8 +891,12 @@
         <f t="shared" si="0"/>
         <v>-3.9425973155045452E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>-0.101369499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>-2.9694509999999998</v>
       </c>
@@ -814,8 +913,12 @@
         <f t="shared" si="0"/>
         <v>-7.4873190216285135E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>-0.19250907900000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>-2.9327749999999999</v>
       </c>
@@ -832,8 +935,12 @@
         <f t="shared" si="0"/>
         <v>-0.39028982096655374</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>-1.0034878140000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>-2.6374460000000002</v>
       </c>
@@ -850,8 +957,12 @@
         <f t="shared" si="0"/>
         <v>-0.15743556248453305</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>-0.40478808300000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>-2.6215320000000002</v>
       </c>
@@ -868,8 +979,12 @@
         <f t="shared" si="0"/>
         <v>-0.16821320781758678</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>-0.43249886400000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>-2.5866760000000002</v>
       </c>
@@ -886,8 +1001,12 @@
         <f t="shared" si="0"/>
         <v>-0.16358994647299588</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>-0.42061183500000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>-2.5214629999999998</v>
       </c>
@@ -904,8 +1023,12 @@
         <f t="shared" si="0"/>
         <v>-0.14459003622511984</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-0.37176050100000008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>-0.84013099999999996</v>
       </c>
@@ -922,8 +1045,12 @@
         <f t="shared" si="0"/>
         <v>1.885211754083058E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>4.8471339000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>-0.77759199999999995</v>
       </c>
@@ -940,8 +1067,12 @@
         <f t="shared" si="0"/>
         <v>2.3505370309586781E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>6.0435480000000007E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>-0.65314700000000003</v>
       </c>
@@ -958,8 +1089,12 @@
         <f t="shared" si="0"/>
         <v>2.5165001958855373E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>6.4702617000000004E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>-0.58918300000000001</v>
       </c>
@@ -976,8 +1111,12 @@
         <f t="shared" si="0"/>
         <v>1.8329905752471076E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>4.7128662000000009E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>-0.56008100000000005</v>
       </c>
@@ -994,8 +1133,12 @@
         <f t="shared" si="0"/>
         <v>3.60123822536529E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>9.2592696000000016E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>-0.52350200000000002</v>
       </c>
@@ -1012,8 +1155,12 @@
         <f t="shared" si="0"/>
         <v>2.0923673886818182E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>5.3797589999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>-0.51345399999999997</v>
       </c>
@@ -1030,8 +1177,12 @@
         <f t="shared" si="0"/>
         <v>4.4869808685805791E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>0.11536633500000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>-0.46854400000000002</v>
       </c>
@@ -1048,8 +1199,12 @@
         <f t="shared" si="0"/>
         <v>2.1910834425731409E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>5.6335713000000009E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>-0.44239699999999998</v>
       </c>
@@ -1066,8 +1221,12 @@
         <f t="shared" si="0"/>
         <v>2.1311242802801653E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>5.4794082000000008E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>-0.44162499999999999</v>
       </c>
@@ -1084,8 +1243,12 @@
         <f t="shared" si="0"/>
         <v>1.9522701935776859E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>5.0195502000000003E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>-0.43137900000000001</v>
       </c>
@@ -1102,8 +1265,12 @@
         <f t="shared" si="0"/>
         <v>1.504342719701653E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>3.8678681999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>-0.37904500000000002</v>
       </c>
@@ -1120,8 +1287,12 @@
         <f t="shared" si="0"/>
         <v>2.544635124758678E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>6.542600400000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>-0.33473900000000001</v>
       </c>
@@ -1138,8 +1309,12 @@
         <f t="shared" si="0"/>
         <v>2.3669073499822314E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>6.0856383000000007E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>-0.31048100000000001</v>
       </c>
@@ -1156,8 +1331,12 @@
         <f t="shared" si="0"/>
         <v>1.9467056082607442E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>5.0052429000000009E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>-0.25503799999999999</v>
       </c>
@@ -1174,8 +1353,12 @@
         <f t="shared" si="0"/>
         <v>3.2828121201855374E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>8.4405531000000006E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>-0.236017</v>
       </c>
@@ -1192,8 +1375,12 @@
         <f t="shared" si="0"/>
         <v>2.5652779149099178E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>6.5956758000000004E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>-0.19647200000000001</v>
       </c>
@@ -1210,8 +1397,12 @@
         <f t="shared" si="0"/>
         <v>2.4891379218942147E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>6.3999096000000005E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>-0.16925399999999999</v>
       </c>
@@ -1228,8 +1419,12 @@
         <f t="shared" si="0"/>
         <v>1.7786008988305787E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>4.5730230000000004E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>-0.154641</v>
       </c>
@@ -1246,8 +1441,12 @@
         <f t="shared" si="0"/>
         <v>7.7258341532541325E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0.19864162500000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>-0.15460499999999999</v>
       </c>
@@ -1264,8 +1463,12 @@
         <f t="shared" si="0"/>
         <v>1.4827173673698346E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>3.8122665E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>-0.14075199999999999</v>
       </c>
@@ -1282,8 +1485,12 @@
         <f t="shared" si="0"/>
         <v>3.2324286511636366E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>8.3110104000000004E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>-0.136572</v>
       </c>
@@ -1300,8 +1507,12 @@
         <f t="shared" si="0"/>
         <v>6.7385568176727265E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>0.17325739200000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>-0.117532</v>
       </c>
@@ -1318,8 +1529,12 @@
         <f t="shared" si="0"/>
         <v>3.2559055982280996E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>8.3713728000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>-0.10616299999999999</v>
       </c>
@@ -1336,8 +1551,12 @@
         <f t="shared" si="0"/>
         <v>3.0197558033231407E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>7.7641998000000004E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>-8.9496999999999993E-2</v>
       </c>
@@ -1354,8 +1573,12 @@
         <f t="shared" si="0"/>
         <v>6.1576787979694216E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0.15832223400000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>-7.1738999999999997E-2</v>
       </c>
@@ -1372,8 +1595,12 @@
         <f t="shared" si="0"/>
         <v>6.5353869714706622E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>0.16803362100000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>-5.9656000000000001E-2</v>
       </c>
@@ -1390,8 +1617,12 @@
         <f t="shared" si="0"/>
         <v>5.5245836832297522E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>0.14204450400000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>-5.7363999999999998E-2</v>
       </c>
@@ -1408,8 +1639,12 @@
         <f t="shared" si="0"/>
         <v>5.339243706023554E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>0.13727916300000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>-3.1836999999999997E-2</v>
       </c>
@@ -1425,6 +1660,10 @@
       <c r="E59">
         <f t="shared" si="0"/>
         <v>5.5954572082983475E-2</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0.14386675800000001</v>
       </c>
     </row>
   </sheetData>

--- a/DragPrediction/NL2VP DragX/0.5L/n/6/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.5L/n/6/test.xlsx
@@ -357,7 +357,7 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -379,7 +379,7 @@
         <v>8.1675991735537194E-3</v>
       </c>
       <c r="G1">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0168969387755101E-2</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -405,11 +405,11 @@
       </c>
       <c r="G2">
         <f>D2*$G$1</f>
-        <v>2.2443493800000001</v>
+        <v>2.1555339971736731</v>
       </c>
       <c r="H2">
         <f>SUM(G2:G137)</f>
-        <v>10.188697868999999</v>
+        <v>9.7855016867117453</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -431,7 +431,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G59" si="1">D3*$G$1</f>
-        <v>2.1016607430000001</v>
+        <v>2.0184919613816019</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -453,7 +453,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>1.904628663</v>
+        <v>1.8292570094803773</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -475,7 +475,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>0.84631732500000012</v>
+        <v>0.81282610572627556</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -497,7 +497,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>0.75782878500000006</v>
+        <v>0.72783931265831636</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -519,7 +519,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>1.069638444</v>
+        <v>1.0273097634762856</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -541,7 +541,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>0.46283078100000002</v>
+        <v>0.44451523112856117</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -563,7 +563,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>0.28381961999999999</v>
+        <v>0.27258805844877548</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -585,7 +585,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>0.321058185</v>
+        <v>0.30835298595015304</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -607,7 +607,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>-1.4543927999999999E-2</v>
+        <v>-1.3968382790938774E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -629,7 +629,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>-0.13697334000000003</v>
+        <v>-0.13155290959040816</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -651,7 +651,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>-0.11592023100000001</v>
+        <v>-0.11133293287907142</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -673,7 +673,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>-0.362858391</v>
+        <v>-0.34849903715090813</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -695,7 +695,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>-0.14575117200000001</v>
+        <v>-0.13998337744273467</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -717,7 +717,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>-0.48052550700000002</v>
+        <v>-0.46150972574849997</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -739,7 +739,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>0.63373426200000005</v>
+        <v>0.6086555681071224</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -761,7 +761,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>0.51701414099999998</v>
+        <v>0.49655439918407135</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -783,7 +783,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>4.5965975999999999E-2</v>
+        <v>4.4146969658204076E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -805,7 +805,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>0.49285824</v>
+        <v>0.47335441690775504</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -827,7 +827,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>0.26399318399999999</v>
+        <v>0.25354621174628572</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -849,7 +849,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>-4.0825386000000005E-2</v>
+        <v>-3.9209807641775507E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -871,7 +871,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>-5.5535151000000005E-2</v>
+        <v>-5.3337464783969391E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -893,7 +893,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>-0.101369499</v>
+        <v>-9.7358015342051005E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -915,7 +915,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>-0.19250907900000003</v>
+        <v>-0.1848909391055204</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -937,7 +937,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>-1.0034878140000001</v>
+        <v>-0.96377690483577538</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -959,7 +959,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>-0.40478808300000002</v>
+        <v>-0.38876945021690812</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -981,7 +981,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>-0.43249886400000004</v>
+        <v>-0.41538363563118363</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>-0.42061183500000004</v>
+        <v>-0.40396701067821428</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>-0.37176050100000008</v>
+        <v>-0.35704886496407146</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>4.8471339000000002E-2</v>
+        <v>4.6553188213071424E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>6.0435480000000007E-2</v>
+        <v>5.8043873621632651E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>6.4702617000000004E-2</v>
+        <v>6.2142147694316321E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>4.7128662000000009E-2</v>
+        <v>4.5263644817326532E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>9.2592696000000016E-2</v>
+        <v>8.8928535769224493E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>5.3797589999999999E-2</v>
+        <v>5.1668664087857134E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>0.11536633500000001</v>
+        <v>0.1108009561425</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>5.6335713000000009E-2</v>
+        <v>5.4106346234969391E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
-        <v>5.4794082000000008E-2</v>
+        <v>5.2625722023244899E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>5.0195502000000003E-2</v>
+        <v>4.8209121106714277E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
-        <v>3.8678681999999999E-2</v>
+        <v>3.7148054915081628E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="G42">
         <f t="shared" si="1"/>
-        <v>6.542600400000001E-2</v>
+        <v>6.2836908182816328E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="1"/>
-        <v>6.0856383000000007E-2</v>
+        <v>5.8448120275071423E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="1"/>
-        <v>5.0052429000000009E-2</v>
+        <v>4.8071709918275508E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="G45">
         <f t="shared" si="1"/>
-        <v>8.4405531000000006E-2</v>
+        <v>8.1065360518867341E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G46">
         <f t="shared" si="1"/>
-        <v>6.5956758000000004E-2</v>
+        <v>6.3346658715122448E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="G47">
         <f t="shared" si="1"/>
-        <v>6.3999096000000005E-2</v>
+        <v>6.1466467050857135E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="1"/>
-        <v>4.5730230000000004E-2</v>
+        <v>4.3920552807857144E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="1"/>
-        <v>0.19864162500000002</v>
+        <v>0.19078080255994898</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
-        <v>3.8122665E-2</v>
+        <v>3.6614041112602039E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="1"/>
-        <v>8.3110104000000004E-2</v>
+        <v>7.982119730424489E-2</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="1"/>
-        <v>0.17325739200000001</v>
+        <v>0.16640109692620406</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="G53">
         <f t="shared" si="1"/>
-        <v>8.3713728000000001E-2</v>
+        <v>8.0400934160326523E-2</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="G54">
         <f t="shared" si="1"/>
-        <v>7.7641998000000004E-2</v>
+        <v>7.456948004124489E-2</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="G55">
         <f t="shared" si="1"/>
-        <v>0.15832223400000001</v>
+        <v>0.15205696623557141</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="1"/>
-        <v>0.16803362100000002</v>
+        <v>0.16138404562203063</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="1"/>
-        <v>0.14204450400000002</v>
+        <v>0.1364233929940408</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="1"/>
-        <v>0.13727916300000001</v>
+        <v>0.13184663029160204</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G59">
         <f t="shared" si="1"/>
-        <v>0.14386675800000001</v>
+        <v>0.13817353514369388</v>
       </c>
     </row>
   </sheetData>
